--- a/municipal/ENG/Demography/Number of divorced people by age groups and sex/Khobi.xlsx
+++ b/municipal/ENG/Demography/Number of divorced people by age groups and sex/Khobi.xlsx
@@ -1,22 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27425"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\დემოგრაფია\Tamunas cxrilebi\inglisuri\cx 23 - eng\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gamashukeli\Desktop\demo\demo\ქორწინება, განქორწინება 2022\განქორწინებულთა რიცხოვნობა ასაკისა და სქესის მიხედვით ქარ. EN\Number of divorced people by age groups and sex\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0A5A8183-BA6C-4F21-B381-3F63A4347BF1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{42765648-CEF5-4A35-A9F5-D8567AE30D03}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="12810" yWindow="360" windowWidth="12390" windowHeight="9105" tabRatio="851" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="390" windowWidth="28800" windowHeight="10245" tabRatio="851" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1 (4)" sheetId="4" state="hidden" r:id="rId1"/>
     <sheet name="1" sheetId="37" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="181029" iterate="1" iterateCount="1000" calcOnSave="0"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="23">
   <si>
     <t>(1 იანვრის მდგომარეობით)</t>
   </si>
@@ -104,7 +104,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="#,##0.0"/>
   </numFmts>
-  <fonts count="14" x14ac:knownFonts="1">
+  <fonts count="16">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -192,6 +192,19 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color indexed="8"/>
+      <name val="Arial"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color indexed="8"/>
+      <name val="Arial"/>
+      <charset val="134"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -405,7 +418,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="36">
+  <cellXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="2" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -485,24 +498,42 @@
     <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="14" fillId="2" borderId="8" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="3" fontId="14" fillId="2" borderId="10" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="3" fontId="15" fillId="2" borderId="4" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="3" fontId="15" fillId="2" borderId="5" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="3" fontId="15" fillId="2" borderId="12" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="3" fontId="15" fillId="2" borderId="13" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -793,22 +824,22 @@
       <selection sqref="A1:D1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="13.5703125" style="6" customWidth="1"/>
     <col min="2" max="2" width="11" customWidth="1"/>
     <col min="3" max="4" width="15.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" s="2" customFormat="1" ht="44.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="29" t="s">
+    <row r="1" spans="1:4" s="2" customFormat="1" ht="44.25" customHeight="1">
+      <c r="A1" s="32" t="s">
         <v>5</v>
       </c>
-      <c r="B1" s="29"/>
-      <c r="C1" s="29"/>
-      <c r="D1" s="29"/>
-    </row>
-    <row r="2" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B1" s="32"/>
+      <c r="C1" s="32"/>
+      <c r="D1" s="32"/>
+    </row>
+    <row r="2" spans="1:4" s="2" customFormat="1">
       <c r="A2" s="3" t="s">
         <v>0</v>
       </c>
@@ -816,7 +847,7 @@
       <c r="C2" s="1"/>
       <c r="D2" s="1"/>
     </row>
-    <row r="3" spans="1:4" s="2" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:4" s="2" customFormat="1" ht="15.75" thickBot="1">
       <c r="A3" s="1" t="s">
         <v>4</v>
       </c>
@@ -824,7 +855,7 @@
       <c r="C3" s="1"/>
       <c r="D3" s="1"/>
     </row>
-    <row r="4" spans="1:4" s="2" customFormat="1" ht="30" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:4" s="2" customFormat="1" ht="30">
       <c r="A4" s="7"/>
       <c r="B4" s="7" t="s">
         <v>1</v>
@@ -836,7 +867,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4">
       <c r="A5" s="4">
         <v>1980</v>
       </c>
@@ -848,7 +879,7 @@
       </c>
       <c r="D5" s="11"/>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4">
       <c r="A6" s="4">
         <v>1981</v>
       </c>
@@ -860,7 +891,7 @@
       </c>
       <c r="D6" s="11"/>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4">
       <c r="A7" s="4">
         <v>1982</v>
       </c>
@@ -872,7 +903,7 @@
       </c>
       <c r="D7" s="11"/>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4">
       <c r="A8" s="4">
         <v>1983</v>
       </c>
@@ -884,7 +915,7 @@
       </c>
       <c r="D8" s="11"/>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4">
       <c r="A9" s="4">
         <v>1984</v>
       </c>
@@ -896,7 +927,7 @@
       </c>
       <c r="D9" s="11"/>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4">
       <c r="A10" s="4">
         <v>1985</v>
       </c>
@@ -908,7 +939,7 @@
       </c>
       <c r="D10" s="11"/>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4">
       <c r="A11" s="4">
         <v>1986</v>
       </c>
@@ -920,7 +951,7 @@
       </c>
       <c r="D11" s="11"/>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4">
       <c r="A12" s="4">
         <v>1987</v>
       </c>
@@ -932,7 +963,7 @@
       </c>
       <c r="D12" s="11"/>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:4">
       <c r="A13" s="4">
         <v>1988</v>
       </c>
@@ -944,7 +975,7 @@
       </c>
       <c r="D13" s="11"/>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:4">
       <c r="A14" s="4">
         <v>1989</v>
       </c>
@@ -956,7 +987,7 @@
       </c>
       <c r="D14" s="11"/>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:4">
       <c r="A15" s="4">
         <v>1990</v>
       </c>
@@ -968,7 +999,7 @@
       </c>
       <c r="D15" s="11"/>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:4">
       <c r="A16" s="4">
         <v>1991</v>
       </c>
@@ -980,7 +1011,7 @@
       </c>
       <c r="D16" s="11"/>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:4">
       <c r="A17" s="4">
         <v>1992</v>
       </c>
@@ -992,7 +1023,7 @@
       </c>
       <c r="D17" s="11"/>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:4">
       <c r="A18" s="4">
         <v>1993</v>
       </c>
@@ -1004,7 +1035,7 @@
       </c>
       <c r="D18" s="11"/>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:4">
       <c r="A19" s="4">
         <v>1994</v>
       </c>
@@ -1012,7 +1043,7 @@
       <c r="C19" s="10"/>
       <c r="D19" s="11"/>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:4">
       <c r="A20" s="4">
         <v>1995</v>
       </c>
@@ -1020,7 +1051,7 @@
       <c r="C20" s="10"/>
       <c r="D20" s="11"/>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:4">
       <c r="A21" s="4">
         <v>1996</v>
       </c>
@@ -1028,7 +1059,7 @@
       <c r="C21" s="10"/>
       <c r="D21" s="11"/>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:4">
       <c r="A22" s="4">
         <v>1997</v>
       </c>
@@ -1036,7 +1067,7 @@
       <c r="C22" s="10"/>
       <c r="D22" s="11"/>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:4">
       <c r="A23" s="4">
         <v>1998</v>
       </c>
@@ -1044,7 +1075,7 @@
       <c r="C23" s="10"/>
       <c r="D23" s="11"/>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:4">
       <c r="A24" s="4">
         <v>1999</v>
       </c>
@@ -1052,7 +1083,7 @@
       <c r="C24" s="10"/>
       <c r="D24" s="11"/>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:4">
       <c r="A25" s="4">
         <v>2000</v>
       </c>
@@ -1060,7 +1091,7 @@
       <c r="C25" s="10"/>
       <c r="D25" s="11"/>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:4">
       <c r="A26" s="4">
         <v>2001</v>
       </c>
@@ -1068,7 +1099,7 @@
       <c r="C26" s="10"/>
       <c r="D26" s="11"/>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:4">
       <c r="A27" s="4">
         <v>2002</v>
       </c>
@@ -1076,7 +1107,7 @@
       <c r="C27" s="10"/>
       <c r="D27" s="11"/>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:4">
       <c r="A28" s="4">
         <v>2003</v>
       </c>
@@ -1084,7 +1115,7 @@
       <c r="C28" s="10"/>
       <c r="D28" s="11"/>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:4">
       <c r="A29" s="4">
         <v>2004</v>
       </c>
@@ -1092,7 +1123,7 @@
       <c r="C29" s="10"/>
       <c r="D29" s="11"/>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:4">
       <c r="A30" s="4">
         <v>2005</v>
       </c>
@@ -1100,7 +1131,7 @@
       <c r="C30" s="10"/>
       <c r="D30" s="11"/>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:4">
       <c r="A31" s="4">
         <v>2006</v>
       </c>
@@ -1108,7 +1139,7 @@
       <c r="C31" s="10"/>
       <c r="D31" s="11"/>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:4">
       <c r="A32" s="4">
         <v>2007</v>
       </c>
@@ -1116,7 +1147,7 @@
       <c r="C32" s="10"/>
       <c r="D32" s="11"/>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:4">
       <c r="A33" s="4">
         <v>2008</v>
       </c>
@@ -1124,7 +1155,7 @@
       <c r="C33" s="10"/>
       <c r="D33" s="11"/>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:4">
       <c r="A34" s="4">
         <v>2009</v>
       </c>
@@ -1132,7 +1163,7 @@
       <c r="C34" s="10"/>
       <c r="D34" s="11"/>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:4">
       <c r="A35" s="4">
         <v>2010</v>
       </c>
@@ -1140,7 +1171,7 @@
       <c r="C35" s="10"/>
       <c r="D35" s="11"/>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:4">
       <c r="A36" s="4">
         <v>2011</v>
       </c>
@@ -1148,7 +1179,7 @@
       <c r="C36" s="10"/>
       <c r="D36" s="11"/>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:4">
       <c r="A37" s="4">
         <v>2012</v>
       </c>
@@ -1156,7 +1187,7 @@
       <c r="C37" s="10"/>
       <c r="D37" s="11"/>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:4">
       <c r="A38" s="4">
         <v>2013</v>
       </c>
@@ -1164,7 +1195,7 @@
       <c r="C38" s="10"/>
       <c r="D38" s="11"/>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:4">
       <c r="A39" s="4">
         <v>2014</v>
       </c>
@@ -1172,7 +1203,7 @@
       <c r="C39" s="10"/>
       <c r="D39" s="11"/>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:4">
       <c r="A40" s="4">
         <v>2015</v>
       </c>
@@ -1180,7 +1211,7 @@
       <c r="C40" s="10"/>
       <c r="D40" s="11"/>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:4">
       <c r="A41" s="4">
         <v>2016</v>
       </c>
@@ -1188,7 +1219,7 @@
       <c r="C41" s="10"/>
       <c r="D41" s="11"/>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:4">
       <c r="A42" s="4">
         <v>2017</v>
       </c>
@@ -1196,7 +1227,7 @@
       <c r="C42" s="10"/>
       <c r="D42" s="11"/>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:4">
       <c r="A43" s="4">
         <v>2018</v>
       </c>
@@ -1204,7 +1235,7 @@
       <c r="C43" s="10"/>
       <c r="D43" s="11"/>
     </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:4">
       <c r="A44" s="4">
         <v>2019</v>
       </c>
@@ -1212,7 +1243,7 @@
       <c r="C44" s="10"/>
       <c r="D44" s="11"/>
     </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:4">
       <c r="A45" s="4">
         <v>2020</v>
       </c>
@@ -1220,7 +1251,7 @@
       <c r="C45" s="10"/>
       <c r="D45" s="11"/>
     </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:4">
       <c r="A46" s="4">
         <v>2021</v>
       </c>
@@ -1228,7 +1259,7 @@
       <c r="C46" s="10"/>
       <c r="D46" s="11"/>
     </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:4">
       <c r="A47" s="4">
         <v>2022</v>
       </c>
@@ -1247,81 +1278,91 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:Y20"/>
+  <dimension ref="A1:AC20"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A4" sqref="A4"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
-    <col min="1" max="1" width="22.28515625" style="35" customWidth="1"/>
-    <col min="2" max="16384" width="9.140625" style="34"/>
+    <col min="1" max="1" width="22.28515625" style="31" customWidth="1"/>
+    <col min="2" max="16384" width="9.140625" style="30"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:25" s="22" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:29" s="22" customFormat="1" ht="15">
       <c r="A1" s="20" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="2" spans="1:25" s="22" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:29" s="22" customFormat="1">
       <c r="A2" s="21"/>
     </row>
-    <row r="3" spans="1:25" s="22" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:29" s="22" customFormat="1" ht="15.75" customHeight="1" thickBot="1">
       <c r="A3" s="22" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="4" spans="1:25" s="28" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:29" s="28" customFormat="1" ht="15" customHeight="1">
       <c r="A4" s="23"/>
-      <c r="B4" s="30">
+      <c r="B4" s="33">
         <v>2010</v>
       </c>
-      <c r="C4" s="31"/>
-      <c r="D4" s="30">
+      <c r="C4" s="35"/>
+      <c r="D4" s="33">
         <v>2011</v>
       </c>
-      <c r="E4" s="31"/>
-      <c r="F4" s="30">
+      <c r="E4" s="35"/>
+      <c r="F4" s="33">
         <v>2012</v>
       </c>
-      <c r="G4" s="31"/>
-      <c r="H4" s="30">
+      <c r="G4" s="35"/>
+      <c r="H4" s="33">
         <v>2013</v>
       </c>
-      <c r="I4" s="31"/>
-      <c r="J4" s="30">
+      <c r="I4" s="35"/>
+      <c r="J4" s="33">
         <v>2014</v>
       </c>
-      <c r="K4" s="31"/>
-      <c r="L4" s="30">
+      <c r="K4" s="35"/>
+      <c r="L4" s="33">
         <v>2015</v>
       </c>
-      <c r="M4" s="31"/>
-      <c r="N4" s="30">
+      <c r="M4" s="35"/>
+      <c r="N4" s="33">
         <v>2016</v>
       </c>
-      <c r="O4" s="31"/>
-      <c r="P4" s="30">
+      <c r="O4" s="35"/>
+      <c r="P4" s="33">
         <v>2017</v>
       </c>
-      <c r="Q4" s="31"/>
-      <c r="R4" s="30">
+      <c r="Q4" s="35"/>
+      <c r="R4" s="33">
         <v>2018</v>
       </c>
-      <c r="S4" s="31"/>
-      <c r="T4" s="30">
+      <c r="S4" s="35"/>
+      <c r="T4" s="33">
         <v>2019</v>
       </c>
-      <c r="U4" s="31"/>
-      <c r="V4" s="30">
+      <c r="U4" s="35"/>
+      <c r="V4" s="33">
         <v>2020</v>
       </c>
-      <c r="W4" s="31"/>
-      <c r="X4" s="30">
+      <c r="W4" s="35"/>
+      <c r="X4" s="33">
         <v>2021</v>
       </c>
-      <c r="Y4" s="32"/>
-    </row>
-    <row r="5" spans="1:25" s="28" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="Y4" s="34"/>
+      <c r="Z4" s="33">
+        <v>2022</v>
+      </c>
+      <c r="AA4" s="34"/>
+      <c r="AB4" s="33">
+        <v>2023</v>
+      </c>
+      <c r="AC4" s="34"/>
+    </row>
+    <row r="5" spans="1:29" s="28" customFormat="1" ht="13.5" thickBot="1">
       <c r="A5" s="24" t="s">
         <v>22</v>
       </c>
@@ -1397,8 +1438,20 @@
       <c r="Y5" s="27" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="6" spans="1:25" s="22" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="Z5" s="26" t="s">
+        <v>19</v>
+      </c>
+      <c r="AA5" s="27" t="s">
+        <v>20</v>
+      </c>
+      <c r="AB5" s="26" t="s">
+        <v>19</v>
+      </c>
+      <c r="AC5" s="27" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="6" spans="1:29" s="22" customFormat="1">
       <c r="A6" s="25" t="s">
         <v>17</v>
       </c>
@@ -1474,8 +1527,20 @@
       <c r="Y6" s="13">
         <v>67</v>
       </c>
-    </row>
-    <row r="7" spans="1:25" s="22" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="Z6" s="12">
+        <v>84</v>
+      </c>
+      <c r="AA6" s="13">
+        <v>84</v>
+      </c>
+      <c r="AB6" s="36">
+        <v>99</v>
+      </c>
+      <c r="AC6" s="37">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="7" spans="1:29" s="22" customFormat="1">
       <c r="A7" s="14" t="s">
         <v>14</v>
       </c>
@@ -1551,8 +1616,20 @@
       <c r="Y7" s="16">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:25" s="22" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="Z7" s="15">
+        <v>0</v>
+      </c>
+      <c r="AA7" s="16">
+        <v>0</v>
+      </c>
+      <c r="AB7" s="38">
+        <v>0</v>
+      </c>
+      <c r="AC7" s="39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:29" s="22" customFormat="1">
       <c r="A8" s="14" t="s">
         <v>6</v>
       </c>
@@ -1628,8 +1705,20 @@
       <c r="Y8" s="16">
         <v>4</v>
       </c>
-    </row>
-    <row r="9" spans="1:25" s="22" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="Z8" s="15">
+        <v>3</v>
+      </c>
+      <c r="AA8" s="16">
+        <v>6</v>
+      </c>
+      <c r="AB8" s="38">
+        <v>2</v>
+      </c>
+      <c r="AC8" s="39">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:29" s="22" customFormat="1">
       <c r="A9" s="14" t="s">
         <v>7</v>
       </c>
@@ -1705,8 +1794,20 @@
       <c r="Y9" s="16">
         <v>14</v>
       </c>
-    </row>
-    <row r="10" spans="1:25" s="22" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="Z9" s="15">
+        <v>6</v>
+      </c>
+      <c r="AA9" s="16">
+        <v>10</v>
+      </c>
+      <c r="AB9" s="38">
+        <v>6</v>
+      </c>
+      <c r="AC9" s="39">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10" spans="1:29" s="22" customFormat="1">
       <c r="A10" s="14" t="s">
         <v>8</v>
       </c>
@@ -1782,8 +1883,20 @@
       <c r="Y10" s="16">
         <v>11</v>
       </c>
-    </row>
-    <row r="11" spans="1:25" s="22" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="Z10" s="15">
+        <v>14</v>
+      </c>
+      <c r="AA10" s="16">
+        <v>25</v>
+      </c>
+      <c r="AB10" s="38">
+        <v>21</v>
+      </c>
+      <c r="AC10" s="39">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="11" spans="1:29" s="22" customFormat="1">
       <c r="A11" s="14" t="s">
         <v>9</v>
       </c>
@@ -1859,8 +1972,20 @@
       <c r="Y11" s="16">
         <v>16</v>
       </c>
-    </row>
-    <row r="12" spans="1:25" s="22" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="Z11" s="15">
+        <v>19</v>
+      </c>
+      <c r="AA11" s="16">
+        <v>13</v>
+      </c>
+      <c r="AB11" s="38">
+        <v>22</v>
+      </c>
+      <c r="AC11" s="39">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="12" spans="1:29" s="22" customFormat="1">
       <c r="A12" s="14" t="s">
         <v>10</v>
       </c>
@@ -1936,8 +2061,20 @@
       <c r="Y12" s="16">
         <v>10</v>
       </c>
-    </row>
-    <row r="13" spans="1:25" s="22" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="Z12" s="15">
+        <v>15</v>
+      </c>
+      <c r="AA12" s="16">
+        <v>10</v>
+      </c>
+      <c r="AB12" s="38">
+        <v>13</v>
+      </c>
+      <c r="AC12" s="39">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="13" spans="1:29" s="22" customFormat="1">
       <c r="A13" s="14" t="s">
         <v>11</v>
       </c>
@@ -2013,8 +2150,20 @@
       <c r="Y13" s="16">
         <v>6</v>
       </c>
-    </row>
-    <row r="14" spans="1:25" s="22" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="Z13" s="15">
+        <v>11</v>
+      </c>
+      <c r="AA13" s="16">
+        <v>6</v>
+      </c>
+      <c r="AB13" s="38">
+        <v>9</v>
+      </c>
+      <c r="AC13" s="39">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="14" spans="1:29" s="22" customFormat="1">
       <c r="A14" s="14" t="s">
         <v>12</v>
       </c>
@@ -2090,8 +2239,20 @@
       <c r="Y14" s="16">
         <v>3</v>
       </c>
-    </row>
-    <row r="15" spans="1:25" s="22" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="Z14" s="15">
+        <v>5</v>
+      </c>
+      <c r="AA14" s="16">
+        <v>3</v>
+      </c>
+      <c r="AB14" s="38">
+        <v>6</v>
+      </c>
+      <c r="AC14" s="39">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="15" spans="1:29" s="22" customFormat="1">
       <c r="A15" s="14" t="s">
         <v>13</v>
       </c>
@@ -2167,8 +2328,20 @@
       <c r="Y15" s="16">
         <v>1</v>
       </c>
-    </row>
-    <row r="16" spans="1:25" s="22" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="Z15" s="15">
+        <v>4</v>
+      </c>
+      <c r="AA15" s="16">
+        <v>4</v>
+      </c>
+      <c r="AB15" s="38">
+        <v>6</v>
+      </c>
+      <c r="AC15" s="39">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="16" spans="1:29" s="22" customFormat="1">
       <c r="A16" s="14" t="s">
         <v>15</v>
       </c>
@@ -2244,8 +2417,20 @@
       <c r="Y16" s="16">
         <v>2</v>
       </c>
-    </row>
-    <row r="17" spans="1:25" s="22" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="Z16" s="15">
+        <v>7</v>
+      </c>
+      <c r="AA16" s="16">
+        <v>7</v>
+      </c>
+      <c r="AB16" s="38">
+        <v>14</v>
+      </c>
+      <c r="AC16" s="39">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="17" spans="1:29" s="22" customFormat="1" ht="13.5" thickBot="1">
       <c r="A17" s="17" t="s">
         <v>18</v>
       </c>
@@ -2321,23 +2506,37 @@
       <c r="Y17" s="19">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A18" s="33"/>
-    </row>
-    <row r="19" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A19" s="33"/>
-    </row>
-    <row r="20" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A20" s="33"/>
+      <c r="Z17" s="18">
+        <v>0</v>
+      </c>
+      <c r="AA17" s="19">
+        <v>0</v>
+      </c>
+      <c r="AB17" s="40">
+        <v>0</v>
+      </c>
+      <c r="AC17" s="41">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:29">
+      <c r="A18" s="29"/>
+    </row>
+    <row r="19" spans="1:29">
+      <c r="A19" s="29"/>
+    </row>
+    <row r="20" spans="1:29">
+      <c r="A20" s="29"/>
     </row>
   </sheetData>
-  <mergeCells count="12">
+  <mergeCells count="14">
+    <mergeCell ref="AB4:AC4"/>
     <mergeCell ref="B4:C4"/>
     <mergeCell ref="D4:E4"/>
     <mergeCell ref="F4:G4"/>
     <mergeCell ref="H4:I4"/>
     <mergeCell ref="J4:K4"/>
+    <mergeCell ref="Z4:AA4"/>
     <mergeCell ref="V4:W4"/>
     <mergeCell ref="X4:Y4"/>
     <mergeCell ref="L4:M4"/>
